--- a/StockingProblemProject/Testes/Problema4/testes_tamanho_populacao/statistic_average_fitness_avaliado.xlsx
+++ b/StockingProblemProject/Testes/Problema4/testes_tamanho_populacao/statistic_average_fitness_avaliado.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\AppData\Local\GitHubDesktop\app-2.8.3\IAProject_StockingProblem\StockingProblemProject\Testes\Problema4\testes_tamanho_populacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itandmore/Documents/GitHub/IAProject_StockingProblem/StockingProblemProject/Testes/Problema4/testes_tamanho_populacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3EA9E9B3-97EF-4C53-A400-50C0416C8B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E223DA3-A78F-FA4E-8CC0-8F98F7051F90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26300" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness_avali" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -145,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,19 +661,19 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -749,11 +760,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -787,18 +798,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -807,20 +812,6 @@
             <c:idx val="19"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-4592-4A87-B60D-696C2E2E0C4B}"/>
@@ -842,9 +833,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -867,13 +861,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1082,7 +1077,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="65"/>
+        <c:gapWidth val="227"/>
+        <c:overlap val="-48"/>
         <c:axId val="634555664"/>
         <c:axId val="634560912"/>
       </c:barChart>
@@ -1094,19 +1090,13 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1115,11 +1105,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1144,40 +1134,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1188,9 +1157,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1225,30 +1194,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1802,74 +1755,47 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="224">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1882,58 +1808,56 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
         </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
+        <a:miter lim="800000"/>
       </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -1942,18 +1866,11 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
+        <a:miter lim="800000"/>
       </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
@@ -1967,18 +1884,18 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -1987,11 +1904,12 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -1999,17 +1917,16 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointWireframe>
@@ -2018,17 +1935,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2045,17 +1962,18 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2067,14 +1985,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2086,11 +2004,11 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2113,26 +2031,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -2144,25 +2049,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2174,14 +2067,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2193,13 +2086,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2208,22 +2102,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2231,7 +2117,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2244,22 +2130,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2270,11 +2145,11 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2286,12 +2161,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1800" b="0" kern="1200" cap="none" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2307,6 +2182,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2315,9 +2191,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2333,13 +2209,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2348,14 +2225,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3232,22 +3114,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.125" customWidth="1"/>
-    <col min="25" max="25" width="1.125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.1640625" customWidth="1"/>
+    <col min="25" max="25" width="1.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3285,7 +3167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>50</v>
       </c>
@@ -3313,7 +3195,7 @@
       <c r="J2">
         <v>4.5502087864184801</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
@@ -3323,7 +3205,7 @@
         <v>250.66</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50</v>
       </c>
@@ -3351,7 +3233,7 @@
       <c r="J3">
         <v>4.4407656997414202</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="9"/>
       <c r="M3" t="s">
         <v>14</v>
       </c>
@@ -3359,7 +3241,7 @@
         <v>250.14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50</v>
       </c>
@@ -3387,7 +3269,7 @@
       <c r="J4">
         <v>4.2671301831558797</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="9"/>
       <c r="M4" t="s">
         <v>15</v>
       </c>
@@ -3395,7 +3277,7 @@
         <v>249.46</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50</v>
       </c>
@@ -3423,7 +3305,7 @@
       <c r="J5">
         <v>4.2135021063243796</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="9"/>
       <c r="M5" t="s">
         <v>16</v>
       </c>
@@ -3431,7 +3313,7 @@
         <v>249.08</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
@@ -3459,7 +3341,7 @@
       <c r="J6">
         <v>4.0576347790307503</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="9"/>
       <c r="M6" t="s">
         <v>17</v>
       </c>
@@ -3467,7 +3349,7 @@
         <v>248.66</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100</v>
       </c>
@@ -3495,7 +3377,7 @@
       <c r="J7">
         <v>4.2428292447375204</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="M7" t="s">
@@ -3505,7 +3387,7 @@
         <v>246.72</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>100</v>
       </c>
@@ -3533,7 +3415,7 @@
       <c r="J8">
         <v>3.8946630149475001</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="9"/>
       <c r="M8" t="s">
         <v>14</v>
       </c>
@@ -3541,7 +3423,7 @@
         <v>245.54</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>100</v>
       </c>
@@ -3569,7 +3451,7 @@
       <c r="J9">
         <v>3.2878564445547198</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="9"/>
       <c r="M9" t="s">
         <v>15</v>
       </c>
@@ -3577,7 +3459,7 @@
         <v>244.3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>100</v>
       </c>
@@ -3605,7 +3487,7 @@
       <c r="J10">
         <v>3.1208332220738702</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="9"/>
       <c r="M10" t="s">
         <v>16</v>
       </c>
@@ -3613,7 +3495,7 @@
         <v>244.02</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
@@ -3641,7 +3523,7 @@
       <c r="J11">
         <v>2.9404761519182498</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="9"/>
       <c r="M11" t="s">
         <v>17</v>
       </c>
@@ -3649,7 +3531,7 @@
         <v>243.56</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>150</v>
       </c>
@@ -3677,7 +3559,7 @@
       <c r="J12">
         <v>4.6141087980237296</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="M12" t="s">
@@ -3687,7 +3569,7 @@
         <v>245.9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>150</v>
       </c>
@@ -3715,7 +3597,7 @@
       <c r="J13">
         <v>5.13871579288055</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="9"/>
       <c r="M13" t="s">
         <v>14</v>
       </c>
@@ -3723,7 +3605,7 @@
         <v>244.56</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>150</v>
       </c>
@@ -3751,7 +3633,7 @@
       <c r="J14">
         <v>5.0142197797862798</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="9"/>
       <c r="M14" t="s">
         <v>15</v>
       </c>
@@ -3759,7 +3641,7 @@
         <v>243.76</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>150</v>
       </c>
@@ -3787,7 +3669,7 @@
       <c r="J15">
         <v>4.7667179484420901</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="9"/>
       <c r="M15" t="s">
         <v>16</v>
       </c>
@@ -3795,7 +3677,7 @@
         <v>243.28</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>150</v>
       </c>
@@ -3823,7 +3705,7 @@
       <c r="J16">
         <v>4.5320635476568496</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="9"/>
       <c r="M16" t="s">
         <v>17</v>
       </c>
@@ -3831,7 +3713,7 @@
         <v>243.02</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>200</v>
       </c>
@@ -3859,7 +3741,7 @@
       <c r="J17">
         <v>4.8282916233384201</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M17" t="s">
@@ -3869,7 +3751,7 @@
         <v>244.74</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>200</v>
       </c>
@@ -3897,7 +3779,7 @@
       <c r="J18">
         <v>4.5738386504116999</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="10"/>
       <c r="M18" t="s">
         <v>14</v>
       </c>
@@ -3905,7 +3787,7 @@
         <v>243.4</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>200</v>
       </c>
@@ -3933,7 +3815,7 @@
       <c r="J19">
         <v>4.4079927404658896</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="10"/>
       <c r="M19" t="s">
         <v>15</v>
       </c>
@@ -3941,7 +3823,7 @@
         <v>242.64</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>200</v>
       </c>
@@ -3969,7 +3851,7 @@
       <c r="J20">
         <v>4.35265436257004</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="10"/>
       <c r="M20" t="s">
         <v>16</v>
       </c>
@@ -3977,7 +3859,7 @@
         <v>242.12</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>200</v>
       </c>
@@ -4005,15 +3887,15 @@
       <c r="J21">
         <v>4.0904278504821399</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="5" t="s">
+      <c r="L21" s="10"/>
+      <c r="M21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="3">
         <v>241.78</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>400</v>
       </c>
@@ -4041,7 +3923,7 @@
       <c r="J22">
         <v>5.3353162980277</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="M22" t="s">
@@ -4051,7 +3933,7 @@
         <v>246.12</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>400</v>
       </c>
@@ -4079,7 +3961,7 @@
       <c r="J23">
         <v>5.73163153037597</v>
       </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="9"/>
       <c r="M23" t="s">
         <v>14</v>
       </c>
@@ -4087,7 +3969,7 @@
         <v>244.78</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>400</v>
       </c>
@@ -4115,7 +3997,7 @@
       <c r="J24">
         <v>5.4103973976039903</v>
       </c>
-      <c r="L24" s="2"/>
+      <c r="L24" s="9"/>
       <c r="M24" t="s">
         <v>15</v>
       </c>
@@ -4123,7 +4005,7 @@
         <v>243.74</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>400</v>
       </c>
@@ -4151,7 +4033,7 @@
       <c r="J25">
         <v>5.2573757712379603</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="9"/>
       <c r="M25" t="s">
         <v>16</v>
       </c>
@@ -4159,7 +4041,7 @@
         <v>242.8</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>400</v>
       </c>
@@ -4187,7 +4069,7 @@
       <c r="J26">
         <v>5.2833322818085096</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="9"/>
       <c r="M26" t="s">
         <v>17</v>
       </c>
@@ -4195,8 +4077,8 @@
         <v>241.92</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -4237,55 +4119,55 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>200</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>200</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>0.8</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>0.9</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2">
         <v>241.78</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>4.0904278504821399</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="M29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="N29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O29" s="7">
-        <f>(A29/B29)/I29</f>
+      <c r="O29" s="5">
+        <f t="shared" ref="O29:O39" si="0">(A29/B29)/I29</f>
         <v>4.1359913971378941E-3</v>
       </c>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="U29" s="6"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>400</v>
       </c>
@@ -4313,21 +4195,21 @@
       <c r="J30">
         <v>5.2833322818085096</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="N30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O30" s="6">
-        <f>(A30/B30)/I30</f>
+      <c r="O30" s="4">
+        <f t="shared" si="0"/>
         <v>8.2671957671957685E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>200</v>
       </c>
@@ -4355,21 +4237,21 @@
       <c r="J31">
         <v>4.35265436257004</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="N31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="6">
-        <f>(A31/B31)/I31</f>
+      <c r="O31" s="4">
+        <f t="shared" si="0"/>
         <v>4.7202095773052318E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>200</v>
       </c>
@@ -4397,21 +4279,21 @@
       <c r="J32">
         <v>4.4079927404658896</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="M32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O32" s="6">
-        <f>(A32/B32)/I32</f>
+      <c r="O32" s="4">
+        <f t="shared" si="0"/>
         <v>5.4951093526761181E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>400</v>
       </c>
@@ -4439,21 +4321,21 @@
       <c r="J33">
         <v>5.2573757712379603</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="M33" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N33" s="10" t="s">
+      <c r="N33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O33" s="6">
-        <f>(A33/B33)/I33</f>
+      <c r="O33" s="4">
+        <f t="shared" si="0"/>
         <v>9.4139797599435155E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>150</v>
       </c>
@@ -4481,21 +4363,21 @@
       <c r="J34">
         <v>4.5320635476568496</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="M34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="N34" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O34" s="6">
-        <f>(A34/B34)/I34</f>
+      <c r="O34" s="4">
+        <f t="shared" si="0"/>
         <v>3.0861657476750882E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>150</v>
       </c>
@@ -4523,21 +4405,21 @@
       <c r="J35">
         <v>4.7667179484420901</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="9" t="s">
+      <c r="N35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="6">
-        <f>(A35/B35)/I35</f>
+      <c r="O35" s="4">
+        <f t="shared" si="0"/>
         <v>3.5232771174895476E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>200</v>
       </c>
@@ -4565,21 +4447,21 @@
       <c r="J36">
         <v>4.5738386504116999</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M36" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O36" s="6">
-        <f>(A36/B36)/I36</f>
+      <c r="O36" s="4">
+        <f t="shared" si="0"/>
         <v>6.5735414954806908E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>100</v>
       </c>
@@ -4607,21 +4489,21 @@
       <c r="J37">
         <v>2.9404761519182498</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="L37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="M37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N37" s="9" t="s">
+      <c r="N37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O37" s="6">
-        <f>(A37/B37)/I37</f>
+      <c r="O37" s="4">
+        <f t="shared" si="0"/>
         <v>2.0528822466743309E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>400</v>
       </c>
@@ -4649,21 +4531,21 @@
       <c r="J38">
         <v>5.4103973976039903</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="L38" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M38" s="9" t="s">
+      <c r="M38" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N38" s="9" t="s">
+      <c r="N38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O38" s="6">
-        <f>(A38/B38)/I38</f>
+      <c r="O38" s="4">
+        <f t="shared" si="0"/>
         <v>1.0940619786110882E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>150</v>
       </c>
@@ -4691,21 +4573,21 @@
       <c r="J39">
         <v>5.0142197797862798</v>
       </c>
-      <c r="L39" s="9" t="s">
+      <c r="L39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M39" s="9" t="s">
+      <c r="M39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="9" t="s">
+      <c r="N39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O39" s="6">
-        <f>(A39/B39)/I39</f>
+      <c r="O39" s="4">
+        <f t="shared" si="0"/>
         <v>4.1023957991467019E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>100</v>
       </c>
@@ -4734,7 +4616,7 @@
         <v>3.1208332220738702</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>100</v>
       </c>
@@ -4763,7 +4645,7 @@
         <v>3.2878564445547198</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>150</v>
       </c>
@@ -4792,7 +4674,7 @@
         <v>5.13871579288055</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>200</v>
       </c>
@@ -4821,7 +4703,7 @@
         <v>4.8282916233384201</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>400</v>
       </c>
@@ -4850,7 +4732,7 @@
         <v>5.73163153037597</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>100</v>
       </c>
@@ -4879,7 +4761,7 @@
         <v>3.8946630149475001</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>150</v>
       </c>
@@ -4908,7 +4790,7 @@
         <v>4.6141087980237296</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>400</v>
       </c>
@@ -4937,7 +4819,7 @@
         <v>5.3353162980277</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>100</v>
       </c>
@@ -4966,7 +4848,7 @@
         <v>4.2428292447375204</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50</v>
       </c>
@@ -4995,7 +4877,7 @@
         <v>4.0576347790307503</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -5024,7 +4906,7 @@
         <v>4.2135021063243796</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5053,7 +4935,7 @@
         <v>4.2671301831558797</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5082,7 +4964,7 @@
         <v>4.4407656997414202</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
@@ -5111,7 +4993,7 @@
         <v>4.5502087864184801</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="1" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:10" s="1" customFormat="1" ht="5.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L29:O39">
     <sortCondition ref="O29:O39"/>
